--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2010.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2010.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"foreign" + 0.001*"exchange" + 0.001*"may" + 0.001*"investment" + 0.001*"rate" + 0.001*"bank" + 0.000*"currency" + 0.000*"monetary" + 0.000*"abroad" + 0.000*"issue"</t>
-  </si>
-  <si>
-    <t>0.000*"exchange" + 0.000*"foreign" + 0.000*"resident" + 0.000*"may" + 0.000*"fund" + 0.000*"abroad" + 0.000*"bank" + 0.000*"rate" + 0.000*"currency" + 0.000*"investment"</t>
-  </si>
-  <si>
-    <t>0.001*"foreign" + 0.000*"exchange" + 0.000*"fund" + 0.000*"may" + 0.000*"bank" + 0.000*"issue" + 0.000*"currency" + 0.000*"abroad" + 0.000*"security" + 0.000*"monetary"</t>
-  </si>
-  <si>
-    <t>0.019*"foreign" + 0.019*"exchange" + 0.011*"may" + 0.010*"fund" + 0.009*"abroad" + 0.009*"bank" + 0.009*"issue" + 0.009*"resident" + 0.008*"currency" + 0.008*"investment"</t>
-  </si>
-  <si>
-    <t>0.003*"foreign" + 0.003*"exchange" + 0.002*"fund" + 0.002*"may" + 0.002*"abroad" + 0.001*"rate" + 0.001*"resident" + 0.001*"bank" + 0.001*"issue" + 0.001*"account"</t>
+    <t>0.046*"payment" + 0.042*"resident" + 0.040*"locally" + 0.037*"investment" + 0.034*"nonresidentsno" + 0.027*"nonresidentsyes" + 0.021*"purchase" + 0.021*"requirementsno" + 0.020*"indicative" + 0.020*"fide"</t>
+  </si>
+  <si>
+    <t>0.064*"foreign" + 0.054*"exchange" + 0.028*"currency" + 0.026*"bank" + 0.016*"rate" + 0.014*"transaction" + 0.014*"may" + 0.013*"domestic" + 0.011*"prior" + 0.009*"market"</t>
+  </si>
+  <si>
+    <t>0.045*"legal" + 0.039*"instrument" + 0.036*"credit" + 0.031*"reference" + 0.024*"export" + 0.018*"surrender" + 0.016*"regulation" + 0.016*"approval" + 0.016*"andhyperlinksn" + 0.015*"specific"</t>
+  </si>
+  <si>
+    <t>0.043*"fund" + 0.029*"limit" + 0.029*"monetary" + 0.024*"capital" + 0.018*"security" + 0.015*"company" + 0.013*"law" + 0.012*"country" + 0.011*"control" + 0.010*"insurance"</t>
+  </si>
+  <si>
+    <t>0.039*"abroad" + 0.024*"import" + 0.021*"account" + 0.020*"require" + 0.020*"may" + 0.020*"purchase" + 0.019*"issue" + 0.017*"resident" + 0.015*"nonresident" + 0.014*"subject"</t>
   </si>
 </sst>
 </file>
